--- a/Precision_recall_values.xlsx
+++ b/Precision_recall_values.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Filter Values</t>
   </si>
@@ -43,14 +43,43 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Givenname</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of Records </t>
+  </si>
+  <si>
+    <t># of Duplicates</t>
+  </si>
+  <si>
+    <t># of unique records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,179 +412,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1">
+        <v>2362</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>90</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H5" s="1">
         <f>1-(3/7638)</f>
         <v>0.99960722702278082</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
         <f>1-51.3971210838273%</f>
         <v>0.48602878916172698</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H6" s="1">
         <f>1-(22/7638)</f>
         <v>0.99711966483372616</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>90</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F7" s="1">
         <f>1-(1213+66)/10000</f>
         <v>0.87209999999999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G7" s="1">
         <f>1-(1213/2362)</f>
         <v>0.48645215918712958</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H7" s="1">
         <f>1-(66/7638)</f>
         <v>0.99135899450117837</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>85</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>85</v>
       </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1">
         <f>1-(574/10000)</f>
         <v>0.94259999999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G8" s="1">
         <f>1-(504/2362)</f>
         <v>0.7866215071972904</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H8" s="1">
         <f>1-(70/7638)</f>
         <v>0.99083529719821939</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I8" s="1">
         <f>1-(70/1928)</f>
         <v>0.9636929460580913</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>83</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>83</v>
       </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1">
-        <f>1-(359+212)/10000</f>
-        <v>0.94289999999999996</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <f>1-(359+112)/10000</f>
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="G9" s="1">
         <f>1-(359/2362)</f>
         <v>0.84801016088060965</v>
       </c>
-      <c r="G7" s="1">
-        <f>1-(212/7638)</f>
-        <v>0.9722440429431789</v>
-      </c>
-      <c r="H7" s="1">
-        <f>1-(212/2115)</f>
-        <v>0.89976359338061462</v>
+      <c r="H9" s="1">
+        <f>1-(112/7638)</f>
+        <v>0.98533647551715109</v>
+      </c>
+      <c r="I9" s="1">
+        <f>1-(112/2115)</f>
+        <v>0.94704491725768325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <f>1-(212+198)/10000</f>
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1-(212/2362)</f>
+        <v>0.91024555461473322</v>
+      </c>
+      <c r="H10" s="1">
+        <f>1-(198/7638)</f>
+        <v>0.974076983503535</v>
+      </c>
+      <c r="I10" s="1">
+        <f>1-(198/1928)</f>
+        <v>0.89730290456431538</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
